--- a/data/news_and_keyword/kosdaq/금양그린파워.xlsx
+++ b/data/news_and_keyword/kosdaq/금양그린파워.xlsx
@@ -993,12 +993,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 약세</t>
+          <t>코스닥 상장 첫날 ‘급락’</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날', '약세']</t>
+          <t>['코스닥', '상장', '첫날', '급락']</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 ‘급락’</t>
+          <t>코스닥 상장 첫날 약세</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날', '급락']</t>
+          <t>['코스닥', '상장', '첫날', '약세']</t>
         </is>
       </c>
       <c r="D23" t="n">
